--- a/biology/Médecine/Jean-François_Terme/Jean-François_Terme.xlsx
+++ b/biology/Médecine/Jean-François_Terme/Jean-François_Terme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Terme</t>
+          <t>Jean-François_Terme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean-François Terme né à Lyon le 11 juillet 1791 et mort dans la même ville le 8 décembre 1847 est un médecin et un homme politique français.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Terme</t>
+          <t>Jean-François_Terme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,16 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunes années
-Jean-François Terme est issu d'une riche famille de négociants[2]. 
-Après ses études, il épouse la profession de médecin[2] ; il prendra d'ailleurs la direction du conseil d'administration des Hospices civils de Lyon le 15 février 1832[2] réunissant ainsi ses compétences professionnelles et son goût pour les affaires publiques.
+          <t>Jeunes années</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Terme est issu d'une riche famille de négociants. 
+Après ses études, il épouse la profession de médecin ; il prendra d'ailleurs la direction du conseil d'administration des Hospices civils de Lyon le 15 février 1832 réunissant ainsi ses compétences professionnelles et son goût pour les affaires publiques.
 Jean-François Terme est le propriétaire du château de Longeval, situé à Saint-Just-d'Avray, dans le Beaujolais. Ce château accueille en 2011 l'institut thérapeutique, éducatif et pédagogique « Clair Joie ».
-Carrière politique
-D'abord 1er adjoint de Victor Prunelle à la ville de Lyon, il succède à Christophe Martin comme maire de la ville, le 9 octobre 1840[2]. À peine élu, il est confronté aux inondations de 1840 dues aux crues du Rhône. Cet évènement conditionnera son action à la tête de la ville. En effet, il a initié de grandes transformations urbaines[2] notamment le développement d'un système d’égouts ainsi que « l’éclairage au gaz, la régénération de la Boucherie-des-Terreaux, l‘élargissement de la rue des Bouquetiers, l‘ouverture de la rue de Bourbon et de la rue Centrale,la construction du pont de Nemours, l‘élargissement des quais Villeroy et Saint-Antoine, la création du quai Fulchiron, la restauration de l'église Saint-Nizier et celle du Palais-des-Arts, et l‘immense perfectionnement de la voie publique[3] ».
-Jean-François Terme a également été député du Rhône entre 1842 et 1847.
-Il meurt avant la fin de son mandat de maire ; il est remplacé par intérim par son 1er adjoint, Clément Reyre[2].
-Autres fonctions
-Membre de la loge maçonnique du « Parfait Silence »[4], Jean-François Terme est également membre de plusieurs sociétés savantes[4] et notamment de l'Académie des sciences, belles-lettres et arts de Lyon[5] et de l'Académie d'agriculture de France.
 </t>
         </is>
       </c>
@@ -535,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Terme</t>
+          <t>Jean-François_Terme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,12 +561,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hommages</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La rue Terme, sur les pentes de la Croix-Rousse, dans le 1er arrondissement de Lyon lui est dédiée.
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord 1er adjoint de Victor Prunelle à la ville de Lyon, il succède à Christophe Martin comme maire de la ville, le 9 octobre 1840. À peine élu, il est confronté aux inondations de 1840 dues aux crues du Rhône. Cet évènement conditionnera son action à la tête de la ville. En effet, il a initié de grandes transformations urbaines notamment le développement d'un système d’égouts ainsi que « l’éclairage au gaz, la régénération de la Boucherie-des-Terreaux, l‘élargissement de la rue des Bouquetiers, l‘ouverture de la rue de Bourbon et de la rue Centrale,la construction du pont de Nemours, l‘élargissement des quais Villeroy et Saint-Antoine, la création du quai Fulchiron, la restauration de l'église Saint-Nizier et celle du Palais-des-Arts, et l‘immense perfectionnement de la voie publique ».
+Jean-François Terme a également été député du Rhône entre 1842 et 1847.
+Il meurt avant la fin de son mandat de maire ; il est remplacé par intérim par son 1er adjoint, Clément Reyre.
 </t>
         </is>
       </c>
@@ -566,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Terme</t>
+          <t>Jean-François_Terme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +600,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres fonctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre de la loge maçonnique du « Parfait Silence », Jean-François Terme est également membre de plusieurs sociétés savantes et notamment de l'Académie des sciences, belles-lettres et arts de Lyon et de l'Académie d'agriculture de France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-François_Terme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Terme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rue Terme, sur les pentes de la Croix-Rousse, dans le 1er arrondissement de Lyon lui est dédiée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-François_Terme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Terme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Discours publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Discours sur les monnaies : prononcé dans la séance de la chambre des députés du 1er juin 1843 (lire en ligne).</t>
         </is>
